--- a/DATA_goal/Junction_Flooding_58.xlsx
+++ b/DATA_goal/Junction_Flooding_58.xlsx
@@ -451,26 +451,26 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>41490.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>23.25</v>
+        <v>2.33</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>16.07</v>
+        <v>1.61</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.24</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>48.99</v>
+        <v>4.9</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>40.53</v>
+        <v>4.05</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.3</v>
+        <v>1.83</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>60.84</v>
+        <v>6.08</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>28.16</v>
+        <v>2.82</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.99</v>
+        <v>1.2</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.48</v>
+        <v>1.85</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.37</v>
+        <v>1.94</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.32</v>
+        <v>2.03</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.84</v>
+        <v>0.58</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.2</v>
+        <v>1.82</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.62</v>
+        <v>2.56</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.17</v>
+        <v>1.52</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.8</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>269.63</v>
+        <v>26.96</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>50.68</v>
+        <v>5.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.8</v>
+        <v>1.68</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>33.69</v>
+        <v>3.37</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.54</v>
+        <v>1.75</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>30.21</v>
+        <v>3.02</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.3</v>
+        <v>1.33</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.56</v>
+        <v>1.56</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>20.06</v>
+        <v>2.01</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>53.78</v>
+        <v>5.38</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>21</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3">
@@ -759,37 +759,37 @@
         <v>41490.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>10.16</v>
+        <v>1.02</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>0</v>
@@ -798,64 +798,64 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.47</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.09</v>
+        <v>0.41</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="AG3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="4" t="n">
         <v>0.04</v>
-      </c>
-      <c r="AH3" s="4" t="n">
-        <v>0.45</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41490.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.58</v>
+        <v>0.76</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>21.29</v>
+        <v>2.13</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.43</v>
+        <v>1.74</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.01</v>
+        <v>0.8</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>27.45</v>
+        <v>2.74</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.1</v>
+        <v>1.21</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.86</v>
+        <v>0.79</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.93</v>
+        <v>0.89</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.4</v>
+        <v>0.24</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.82</v>
+        <v>0.78</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.95</v>
+        <v>1.1</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.74</v>
+        <v>0.67</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>112.09</v>
+        <v>11.21</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>21.66</v>
+        <v>2.17</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.22</v>
+        <v>0.72</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>14.31</v>
+        <v>1.43</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.16</v>
+        <v>1.32</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.36</v>
+        <v>0.64</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.55</v>
+        <v>0.65</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>24.36</v>
+        <v>2.44</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41490.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.06</v>
+        <v>0.71</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>15.35</v>
+        <v>1.53</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.55</v>
+        <v>1.25</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.86</v>
+        <v>0.59</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.88</v>
+        <v>2.29</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.73</v>
+        <v>0.87</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.17</v>
+        <v>0.62</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.44</v>
+        <v>0.64</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.95</v>
+        <v>0.79</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AB5" s="4" t="n">
         <v>0.41</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>78.78</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>15.83</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>4.1</v>
-      </c>
       <c r="AC5" s="4" t="n">
-        <v>4.73</v>
+        <v>0.47</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.55</v>
+        <v>0.66</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>20.81</v>
+        <v>2.08</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.88</v>
+        <v>0.29</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.49</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41490.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.71</v>
+        <v>0.17</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.71</v>
+        <v>0.37</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.95</v>
+        <v>0.29</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>9.27</v>
+        <v>0.93</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="N6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U6" s="4" t="n">
         <v>0.43</v>
       </c>
-      <c r="O6" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.28</v>
-      </c>
       <c r="V6" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.79</v>
+        <v>0.28</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>4.14</v>
+        <v>0.41</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.15</v>
+        <v>0.11</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41490.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>15.08</v>
+        <v>1.51</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>32.81</v>
+        <v>3.28</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>27.02</v>
+        <v>2.7</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>41.46</v>
+        <v>4.15</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>18.38</v>
+        <v>1.84</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>12.18</v>
+        <v>1.22</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>13.19</v>
+        <v>1.32</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>13.88</v>
+        <v>1.39</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>16.86</v>
+        <v>1.69</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>173.63</v>
+        <v>17.36</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>33.05</v>
+        <v>3.31</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>22.2</v>
+        <v>2.22</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>11.86</v>
+        <v>1.19</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>20.64</v>
+        <v>2.06</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>9.67</v>
+        <v>0.97</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>13.9</v>
+        <v>1.39</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>37.25</v>
+        <v>3.73</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>6.2</v>
+        <v>0.62</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>13.69</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41490.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>13.65</v>
+        <v>1.37</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>29.7</v>
+        <v>2.97</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>24.47</v>
+        <v>2.45</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>10.96</v>
+        <v>1.1</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>42.17</v>
+        <v>4.22</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>16.64</v>
+        <v>1.66</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.39</v>
+        <v>0.74</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>11.94</v>
+        <v>1.19</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.42</v>
+        <v>0.34</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>10.75</v>
+        <v>1.08</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>15.31</v>
+        <v>1.53</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>156.46</v>
+        <v>15.65</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>30.09</v>
+        <v>3.01</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>20.23</v>
+        <v>2.02</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>10.75</v>
+        <v>1.08</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>20.51</v>
+        <v>2.05</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>8.75</v>
+        <v>0.88</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>7.75</v>
+        <v>0.77</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>12.59</v>
+        <v>1.26</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>38.38</v>
+        <v>3.84</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>12.39</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41490.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>4.43</v>
+        <v>0.44</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>3.59</v>
+        <v>0.36</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="J9" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF9" s="4" t="n">
         <v>1.18</v>
       </c>
-      <c r="K9" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>18.06</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>11.75</v>
-      </c>
       <c r="AG9" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41490.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>10.62</v>
+        <v>1.06</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>30.58</v>
+        <v>3.06</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>25.21</v>
+        <v>2.52</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>11.24</v>
+        <v>1.12</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>39.29</v>
+        <v>3.93</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>17.1</v>
+        <v>1.71</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.59</v>
+        <v>0.76</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>11.36</v>
+        <v>1.14</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>12.3</v>
+        <v>1.23</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>12.96</v>
+        <v>1.3</v>
       </c>
       <c r="N10" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AD10" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF10" s="4" t="n">
         <v>3.53</v>
       </c>
-      <c r="O10" s="4" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>160.98</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>30.75</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>35.29</v>
-      </c>
       <c r="AG10" s="4" t="n">
-        <v>5.79</v>
+        <v>0.58</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>12.74</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_58.xlsx
+++ b/DATA_goal/Junction_Flooding_58.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41490.34027777778</v>
+        <v>40751.38194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.33</v>
+        <v>0.52</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.9</v>
+        <v>0.25</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4.05</v>
+        <v>0.31</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.83</v>
+        <v>0.25</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.08</v>
+        <v>0.55</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.82</v>
+        <v>0.16</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.2</v>
+        <v>0.09</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.85</v>
+        <v>0.4</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.94</v>
+        <v>0.11</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2.03</v>
+        <v>0.09</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.58</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.82</v>
+        <v>0.09</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.56</v>
+        <v>0.27</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.52</v>
+        <v>0.11</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>26.96</v>
+        <v>2.01</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.07</v>
+        <v>0.48</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.68</v>
+        <v>0.24</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.37</v>
+        <v>0.39</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.75</v>
+        <v>0.1</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.02</v>
+        <v>0.2</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.48</v>
+        <v>0.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.33</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.56</v>
+        <v>0.09</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.01</v>
+        <v>0.31</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.38</v>
+        <v>0.31</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.1</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41490.34722222222</v>
+        <v>40751.38888888889</v>
       </c>
       <c r="B3" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D3" s="4" t="n">
         <v>0.02</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="E3" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="J3" s="4" t="n">
+      <c r="S3" s="4" t="n">
         <v>0.02</v>
       </c>
-      <c r="K3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>11.81</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.18</v>
+        <v>2.29</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.8</v>
       </c>
       <c r="W3" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="X3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z3" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AG3" s="4" t="n">
         <v>0.41</v>
       </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="AH3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41490.35416666666</v>
+        <v>40751.39583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.98</v>
+        <v>1.85</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.76</v>
+        <v>1.35</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.13</v>
+        <v>3.78</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.74</v>
+        <v>3.17</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.8</v>
+        <v>1.43</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.74</v>
+        <v>5.22</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.21</v>
+        <v>2.1</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.52</v>
+        <v>0.96</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.79</v>
+        <v>1.5</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.85</v>
+        <v>1.53</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.89</v>
+        <v>1.59</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.24</v>
+        <v>0.45</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.78</v>
+        <v>1.36</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.1</v>
+        <v>2.02</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.67</v>
+        <v>1.13</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11.21</v>
+        <v>20.42</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.17</v>
+        <v>3.89</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.72</v>
+        <v>1.31</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.43</v>
+        <v>2.64</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.78</v>
+        <v>1.36</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.32</v>
+        <v>2.59</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.64</v>
+        <v>1.13</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.65</v>
+        <v>1.15</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.91</v>
+        <v>1.67</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.44</v>
+        <v>4.71</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.71</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.9</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41490.36111111111</v>
+        <v>40751.40277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.58</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.41</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.53</v>
+        <v>1.08</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.25</v>
+        <v>0.93</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.44</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.6</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.29</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="L5" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="P5" s="4" t="n">
         <v>0.62</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.79</v>
-      </c>
       <c r="Q5" s="4" t="n">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.88</v>
+        <v>5.55</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.58</v>
+        <v>1.18</v>
       </c>
       <c r="V5" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AD5" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="W5" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AA5" s="4" t="n">
+      <c r="AE5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AH5" s="4" t="n">
         <v>0.46</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>0.65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41490.36805555555</v>
+        <v>40751.40971064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.17</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.14</v>
+        <v>6.95</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.37</v>
+        <v>19.33</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.29</v>
+        <v>16.27</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.16</v>
+        <v>7.42</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>0.93</v>
+        <v>27.53</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.22</v>
+        <v>10.74</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.09</v>
+        <v>4.94</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.13</v>
+        <v>7.73</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.15</v>
+        <v>7.87</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.15</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.04</v>
+        <v>2.29</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.14</v>
+        <v>6.96</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.2</v>
+        <v>10.42</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.14</v>
+        <v>5.8</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.28</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>1.47</v>
+        <v>101.24</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>0.43</v>
+        <v>19.91</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.13</v>
+        <v>6.73</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>0.28</v>
+        <v>13.51</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.16</v>
+        <v>6.96</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Z6" s="4" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="AE6" s="4" t="n">
         <v>0.41</v>
       </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF6" s="4" t="n">
-        <v>0.87</v>
+        <v>24.57</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>3.63</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41490.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>17.36</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41490.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>15.65</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41490.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41490.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41490.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>13.29</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>23.85</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>40.91</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>16.17</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>151.84</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>29.25</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>19.92</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>8.51</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>37.21</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>12.05</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_58.xlsx
+++ b/DATA_goal/Junction_Flooding_58.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40751.38194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.38888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.74</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.17</v>
+        <v>21.65</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.86</v>
+        <v>18.58</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.69</v>
+        <v>26.88</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.1</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.66</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.82</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.06</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.67</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.16</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.59</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>11.81</v>
+        <v>118.12</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.29</v>
+        <v>22.92</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.57</v>
+        <v>15.72</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.85</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.38</v>
+        <v>13.79</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.65</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.57</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.35</v>
+        <v>23.45</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.06</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.39583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.85</v>
+        <v>18.51</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.46</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.78</v>
+        <v>37.78</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.17</v>
+        <v>31.71</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.34</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.22</v>
+        <v>52.17</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.1</v>
+        <v>21.03</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.5</v>
+        <v>14.99</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.29</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.92</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.58</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.02</v>
+        <v>20.21</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.33</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>20.42</v>
+        <v>204.15</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.89</v>
+        <v>38.85</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.06</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.64</v>
+        <v>26.42</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.59</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.59</v>
+        <v>25.94</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.3</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.51</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.73</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.71</v>
+        <v>47.06</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.12</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.58</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.40277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.83</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.32</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.44</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.13</v>
+        <v>21.33</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.69</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.28</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>5.55</v>
+        <v>55.48</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.82</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.35</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="AD5" s="4" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>1.95</v>
+        <v>19.49</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_58.xlsx
+++ b/DATA_goal/Junction_Flooding_58.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,100 +655,100 @@
         <v>40751.38194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.24</v>
+        <v>5.237</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.61</v>
+        <v>1.607</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.48</v>
+        <v>2.478</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.05</v>
+        <v>3.053</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.52</v>
+        <v>2.519</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.49</v>
+        <v>5.488</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.55</v>
+        <v>1.554</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.02</v>
+        <v>4.022</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.069</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
         <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.75</v>
+        <v>2.749</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.11</v>
+        <v>1.106</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0.51</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.063</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.09</v>
+        <v>20.094</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.8</v>
+        <v>4.803</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.37</v>
+        <v>2.372</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.89</v>
+        <v>3.891</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>1.034</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.249</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.15</v>
+        <v>1.154</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.674</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.129</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>2.866</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.128</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.45</v>
+        <v>0.446</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>1.43</v>
@@ -759,103 +759,103 @@
         <v>40751.38888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>11.74</v>
+        <v>11.741</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>8.036</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.192</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21.65</v>
+        <v>21.654</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>18.58</v>
+        <v>18.582</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.797000000000001</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>26.88</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.1</v>
+        <v>12.101</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.66</v>
+        <v>5.656</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>9.472</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.82</v>
+        <v>8.823</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>9.06</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.67</v>
+        <v>2.668</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.76</v>
+        <v>7.765</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>12.16</v>
+        <v>12.163</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.59</v>
+        <v>6.589</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.218</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>118.12</v>
+        <v>118.121</v>
       </c>
       <c r="U3" s="4" t="n">
         <v>22.92</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.97</v>
+        <v>7.969</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>15.72</v>
+        <v>15.716</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.85</v>
+        <v>7.847</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.08</v>
+        <v>1.085</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>13.79</v>
+        <v>13.786</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.65</v>
+        <v>6.652</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.57</v>
+        <v>5.574</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.66</v>
+        <v>6.661</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.3</v>
+        <v>10.301</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.13</v>
+        <v>1.133</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>23.45</v>
+        <v>23.454</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.06</v>
+        <v>4.058</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.196</v>
       </c>
     </row>
     <row r="4">
@@ -863,108 +863,108 @@
         <v>40751.39583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.51</v>
+        <v>18.513</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.46</v>
+        <v>13.464</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.453</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>37.78</v>
+        <v>37.782</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>31.71</v>
+        <v>31.715</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.34</v>
+        <v>14.345</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>52.17</v>
+        <v>52.171</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>21.03</v>
+        <v>21.034</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>9.638</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.99</v>
+        <v>14.994</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15.29</v>
+        <v>15.292</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.92</v>
+        <v>15.921</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.47</v>
+        <v>4.473</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.58</v>
+        <v>13.581</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>20.21</v>
+        <v>20.206</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.33</v>
+        <v>11.335</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.431</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>204.15</v>
+        <v>204.155</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>38.85</v>
+        <v>38.853</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.06</v>
+        <v>13.063</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>26.42</v>
+        <v>26.416</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.59</v>
+        <v>13.592</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.82</v>
+        <v>1.824</v>
       </c>
       <c r="Z4" s="4" t="n">
         <v>25.94</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.3</v>
+        <v>11.301</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.721</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.51</v>
+        <v>11.508</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16.73</v>
+        <v>16.732</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.716</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>47.06</v>
+        <v>47.062</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.12</v>
+        <v>7.119</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.82</v>
+        <v>15.824</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.40277777778</v>
+        <v>40751.4027662037</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>5.82</v>
@@ -985,7 +985,7 @@
         <v>4.44</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>21.33</v>
+        <v>21.32</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>6.02</v>
@@ -1039,7 +1039,7 @@
         <v>0.54</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>3.35</v>
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>4.6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.40971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.27</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>27.53</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>101.24</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>19.91</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>24.57</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.109999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_58.xlsx
+++ b/DATA_goal/Junction_Flooding_58.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,52 +964,52 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.4027662037</v>
+        <v>40751.40277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.82</v>
+        <v>5.822</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.07</v>
+        <v>4.071</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.057</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.83</v>
+        <v>10.832</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.32</v>
+        <v>9.321</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.44</v>
+        <v>4.441</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>21.32</v>
+        <v>21.33</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.02</v>
+        <v>6.016</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.91</v>
+        <v>2.906</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.69</v>
+        <v>4.691</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.47</v>
+        <v>4.468</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.49</v>
+        <v>4.493</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.34</v>
+        <v>1.339</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.9</v>
+        <v>3.895</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.25</v>
+        <v>6.248</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>3.28</v>
@@ -1018,52 +1018,156 @@
         <v>0.28</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.48</v>
+        <v>55.484</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.82</v>
+        <v>11.818</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.98</v>
+        <v>3.984</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>8.1</v>
+        <v>8.103</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.98</v>
+        <v>3.976</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.542</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.35</v>
+        <v>3.349</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>2.79</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.33</v>
+        <v>3.329</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.17</v>
+        <v>5.169</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.525</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>19.49</v>
+        <v>19.494</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.02</v>
+        <v>2.021</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.6</v>
+        <v>4.605</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40751.40971064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>27.53</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>101.24</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>19.91</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>24.57</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>8.109999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_58.xlsx
+++ b/DATA_goal/Junction_Flooding_58.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,52 +964,52 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.40277777778</v>
+        <v>40751.4027662037</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.822</v>
+        <v>5.82</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.071</v>
+        <v>4.07</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.057</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.832</v>
+        <v>10.83</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.321</v>
+        <v>9.32</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.441</v>
+        <v>4.44</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>21.33</v>
+        <v>21.32</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.016</v>
+        <v>6.02</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.906</v>
+        <v>2.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.691</v>
+        <v>4.69</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.468</v>
+        <v>4.47</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.493</v>
+        <v>4.49</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.339</v>
+        <v>1.34</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.895</v>
+        <v>3.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.248</v>
+        <v>6.25</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>3.28</v>
@@ -1018,156 +1018,52 @@
         <v>0.28</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.484</v>
+        <v>55.48</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.818</v>
+        <v>11.82</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.984</v>
+        <v>3.98</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>8.103</v>
+        <v>8.1</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.976</v>
+        <v>3.98</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.542</v>
+        <v>0.54</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.957000000000001</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.349</v>
+        <v>3.35</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>2.79</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.329</v>
+        <v>3.33</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.169</v>
+        <v>5.17</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.525</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>19.494</v>
+        <v>19.49</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.021</v>
+        <v>2.02</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.605</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.40971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.27</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>27.53</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>101.24</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>19.91</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>24.57</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>4.6</v>
       </c>
     </row>
   </sheetData>
